--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/24_Çorum_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/24_Çorum_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51965A8A-559C-4271-95CF-F0CE3C917EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88FE5FE6-CBC1-445D-B05A-7E52CBE7A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{E81653ED-F1D5-47DE-9C00-6F37AC8B3238}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{177306C0-FB13-4800-896E-E5539EE4EB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -911,13 +911,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{70549B9A-D81D-4011-BD77-E7148DAD639A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A47C3E32-CE52-485C-8E9F-7A4646211A94}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{AD6B67ED-C41A-46E0-8490-C7ADEC1FDF43}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{8723BCAA-0E21-4CF2-9F6E-3622F786C2F6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{0508CFF8-4431-41BF-93BA-4A24CF39E6F7}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{84FCDEAF-71A1-4971-A7A9-AD2B8992C45A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{16198216-CD93-4780-8195-FE5CDAD4BBA0}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B0202635-0EA4-4009-8013-76DFF3633D91}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{537E84BC-9677-45DA-A640-4582821DAB71}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{06FF348D-0EF9-4880-9489-4BE58725A746}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{FDB02E1A-2D89-4D84-AEA3-2D01D53316E9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A09B58BB-2D73-4EA8-9864-60ABA52E1D22}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{4F03F504-D436-4FCD-B471-B8FE7203A1F1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F212DC99-D29D-4722-A467-4E1DB1F8C652}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7945F33D-B685-4831-BF05-280C26B08C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE2A10C-183F-43C3-B2C5-56FF8AFC37AD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2554,7 +2554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5B8D7D-EE84-492B-88CA-C62DFBDF6764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A222A154-2581-44FD-97B0-2F06EBA263FE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9981ECD4-E4F1-4426-9268-C19A063642ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F359B644-9245-401B-A5D1-E5273D142FA1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5050,7 +5050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86A1780-123A-48FA-B538-51815B432332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831231E6-67B6-44E0-AD12-50633DD01291}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6295,7 +6295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270CE42C-17C2-49B6-B538-3B2809685BDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBFC579-77C4-403B-A774-FF97CFFEC6F7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7560,7 +7560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13EC2D1-07A4-463E-95EC-DC851F894253}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDC0EA8-5470-4B50-8AA6-ECD65EFA980E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8817,7 +8817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4889D3B-1D5E-44EF-A04A-E331970060A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6245FBFF-B508-4212-8098-A00992D7D53D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10070,7 +10070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3891E9E3-BAD9-429F-919D-CF04C6FB12E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78911B4-9846-45F5-894E-AAF8B54F48CB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11323,7 +11323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AD1645-6529-4C64-B272-EB3A09445959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DED603-DE8B-48D7-B712-B88FF19A75D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12574,7 +12574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8EF644-2DFB-4CB4-B562-1527C4750020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D7D3AB-24BE-4BD9-887E-13140C85C1EA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13825,7 +13825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA28A22-5979-4F66-85AE-1C044644A852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7123E59-99F0-4E40-8EF2-6A8115900D30}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15076,7 +15076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6C7B1B-2BE9-42F0-A656-721BCEE4A27F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F35CE9-6984-4A18-97AE-6E1B6D59D1D1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
